--- a/my_prompts.xlsx
+++ b/my_prompts.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\awesome-chatgpt-prompts\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\notes\awesome-chatgpt-prompts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2325BA32-EF2D-4EB9-A4A9-8B269190B61C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3B9E06D-A66D-40D7-AA7E-10DF68F9167B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-25710" yWindow="-1450" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="795" yWindow="1560" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>act</t>
   </si>
@@ -33,15 +33,58 @@
     <t>prompt</t>
   </si>
   <si>
-    <t>Journal Reviewer</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>I want you to act as a journal reviewer. You will need to review and critique articles submitted for publication by critically evaluating their research, approach, methodologies, and conclusions and can offer constructive criticism on their strengths and weaknesses.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>I want you do not give any your opinions before I request you to answer questions, just wait for further text/instructions.</t>
+    <t>English Translator and Improver</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Academic English Improver</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Answer the following questions separately, while also repeat the original questions for clarity.
+1. What is the main problem addressed in this paper?
+2. What are the limitations of previous works, and how does this work differ from them?
+3. What flaws in previous works does this paper address and resolve?
+4. What is the contribution of this paper, and what is the key technique used to achieve it?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>According to the provided content, please provide some technically sound questions from the perspective of a reviewer.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;title/abstract/introduction&gt;
+I want you do not give any your opinions before I request you to answer questions, just wait for further text/instructions.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I want you to act as an English translator, spelling corrector and improver. I will speak to you in any language and you will detect the language, translate it and answer in the corrected and improved version of my text, in English. I want you to replace my simplified A0-level words and sentences with more beautiful and elegant, upper level English words and sentences. Keep the meaning same, but make them more literary. I want you to only reply the correction, the improvements and nothing else, do not write explanations. The text is:
+&lt;text&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I want you to act as an English translator, spelling corrector, and academic style enhancer. I will speak to you in any language and you will detect the language, translate it, and provide a revised and refined version of my text in English, while preserving its intended meaning. My objective is to refine my vocabulary and syntax to better suit academic writing conventions. I want you provide a brief explanation of the changes you made. The text is:
+&lt;text&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Paper Reviewer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Paper Reviewer Request</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Paper Reviewer Questions</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Paper Reviewer Comments</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -49,7 +92,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -85,10 +128,22 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -370,15 +425,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:AA18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col min="1" max="1" width="29.25" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:27">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -386,23 +444,392 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+    <row r="2" spans="1:27" ht="14.25" customHeight="1">
+      <c r="A2" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="5"/>
+      <c r="J2" s="5"/>
+      <c r="K2" s="5"/>
+      <c r="L2" s="5"/>
+      <c r="M2" s="5"/>
+      <c r="N2" s="5"/>
+      <c r="O2" s="5"/>
+      <c r="P2" s="5"/>
+      <c r="Q2" s="5"/>
+      <c r="R2" s="5"/>
+      <c r="S2" s="5"/>
+      <c r="T2" s="5"/>
+      <c r="U2" s="5"/>
+      <c r="V2" s="5"/>
+      <c r="W2" s="5"/>
+      <c r="X2" s="5"/>
+      <c r="Y2" s="5"/>
+      <c r="Z2" s="5"/>
+      <c r="AA2" s="5"/>
+    </row>
+    <row r="3" spans="1:27">
+      <c r="A3" s="4"/>
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="5"/>
+      <c r="J3" s="5"/>
+      <c r="K3" s="5"/>
+      <c r="L3" s="5"/>
+      <c r="M3" s="5"/>
+      <c r="N3" s="5"/>
+      <c r="O3" s="5"/>
+      <c r="P3" s="5"/>
+      <c r="Q3" s="5"/>
+      <c r="R3" s="5"/>
+      <c r="S3" s="5"/>
+      <c r="T3" s="5"/>
+      <c r="U3" s="5"/>
+      <c r="V3" s="5"/>
+      <c r="W3" s="5"/>
+      <c r="X3" s="5"/>
+      <c r="Y3" s="5"/>
+      <c r="Z3" s="5"/>
+      <c r="AA3" s="5"/>
+    </row>
+    <row r="4" spans="1:27">
+      <c r="A4" s="4"/>
+      <c r="B4" s="5"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="5"/>
+      <c r="I4" s="5"/>
+      <c r="J4" s="5"/>
+      <c r="K4" s="5"/>
+      <c r="L4" s="5"/>
+      <c r="M4" s="5"/>
+      <c r="N4" s="5"/>
+      <c r="O4" s="5"/>
+      <c r="P4" s="5"/>
+      <c r="Q4" s="5"/>
+      <c r="R4" s="5"/>
+      <c r="S4" s="5"/>
+      <c r="T4" s="5"/>
+      <c r="U4" s="5"/>
+      <c r="V4" s="5"/>
+      <c r="W4" s="5"/>
+      <c r="X4" s="5"/>
+      <c r="Y4" s="5"/>
+      <c r="Z4" s="5"/>
+      <c r="AA4" s="5"/>
+    </row>
+    <row r="5" spans="1:27">
+      <c r="A5" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="5"/>
+      <c r="I5" s="5"/>
+      <c r="J5" s="5"/>
+      <c r="K5" s="5"/>
+      <c r="L5" s="5"/>
+      <c r="M5" s="5"/>
+      <c r="N5" s="5"/>
+      <c r="O5" s="5"/>
+      <c r="P5" s="5"/>
+      <c r="Q5" s="5"/>
+      <c r="R5" s="5"/>
+      <c r="S5" s="5"/>
+      <c r="T5" s="5"/>
+      <c r="U5" s="5"/>
+      <c r="V5" s="5"/>
+      <c r="W5" s="5"/>
+      <c r="X5" s="5"/>
+      <c r="Y5" s="5"/>
+      <c r="Z5" s="5"/>
+      <c r="AA5" s="5"/>
+    </row>
+    <row r="6" spans="1:27">
+      <c r="A6" s="4"/>
+      <c r="B6" s="5"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="5"/>
+      <c r="I6" s="5"/>
+      <c r="J6" s="5"/>
+      <c r="K6" s="5"/>
+      <c r="L6" s="5"/>
+      <c r="M6" s="5"/>
+      <c r="N6" s="5"/>
+      <c r="O6" s="5"/>
+      <c r="P6" s="5"/>
+      <c r="Q6" s="5"/>
+      <c r="R6" s="5"/>
+      <c r="S6" s="5"/>
+      <c r="T6" s="5"/>
+      <c r="U6" s="5"/>
+      <c r="V6" s="5"/>
+      <c r="W6" s="5"/>
+      <c r="X6" s="5"/>
+      <c r="Y6" s="5"/>
+      <c r="Z6" s="5"/>
+      <c r="AA6" s="5"/>
+    </row>
+    <row r="7" spans="1:27">
+      <c r="A7" s="4"/>
+      <c r="B7" s="5"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="5"/>
+      <c r="I7" s="5"/>
+      <c r="J7" s="5"/>
+      <c r="K7" s="5"/>
+      <c r="L7" s="5"/>
+      <c r="M7" s="5"/>
+      <c r="N7" s="5"/>
+      <c r="O7" s="5"/>
+      <c r="P7" s="5"/>
+      <c r="Q7" s="5"/>
+      <c r="R7" s="5"/>
+      <c r="S7" s="5"/>
+      <c r="T7" s="5"/>
+      <c r="U7" s="5"/>
+      <c r="V7" s="5"/>
+      <c r="W7" s="5"/>
+      <c r="X7" s="5"/>
+      <c r="Y7" s="5"/>
+      <c r="Z7" s="5"/>
+      <c r="AA7" s="5"/>
+    </row>
+    <row r="8" spans="1:27">
+      <c r="A8" s="2"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3"/>
+      <c r="K8" s="3"/>
+      <c r="L8" s="3"/>
+      <c r="M8" s="3"/>
+      <c r="N8" s="3"/>
+      <c r="O8" s="3"/>
+      <c r="P8" s="3"/>
+      <c r="Q8" s="3"/>
+      <c r="R8" s="3"/>
+      <c r="S8" s="3"/>
+      <c r="T8" s="3"/>
+      <c r="U8" s="3"/>
+      <c r="V8" s="3"/>
+      <c r="W8" s="3"/>
+      <c r="X8" s="3"/>
+      <c r="Y8" s="3"/>
+      <c r="Z8" s="3"/>
+      <c r="AA8" s="3"/>
+    </row>
+    <row r="9" spans="1:27">
+      <c r="A9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" t="s">
         <v>2</v>
       </c>
-      <c r="B2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>4</v>
-      </c>
+    </row>
+    <row r="10" spans="1:27">
+      <c r="A10" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4"/>
+      <c r="H10" s="4"/>
+      <c r="I10" s="4"/>
+      <c r="J10" s="4"/>
+      <c r="K10" s="4"/>
+      <c r="L10" s="4"/>
+      <c r="M10" s="4"/>
+      <c r="N10" s="4"/>
+      <c r="O10" s="4"/>
+    </row>
+    <row r="11" spans="1:27">
+      <c r="A11" s="4"/>
+      <c r="B11" s="4"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4"/>
+      <c r="H11" s="4"/>
+      <c r="I11" s="4"/>
+      <c r="J11" s="4"/>
+      <c r="K11" s="4"/>
+      <c r="L11" s="4"/>
+      <c r="M11" s="4"/>
+      <c r="N11" s="4"/>
+      <c r="O11" s="4"/>
+    </row>
+    <row r="12" spans="1:27" ht="14.25" customHeight="1">
+      <c r="A12" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="5"/>
+      <c r="H12" s="5"/>
+      <c r="I12" s="5"/>
+      <c r="J12" s="5"/>
+      <c r="K12" s="5"/>
+      <c r="L12" s="5"/>
+      <c r="M12" s="5"/>
+      <c r="N12" s="5"/>
+      <c r="O12" s="5"/>
+    </row>
+    <row r="13" spans="1:27">
+      <c r="A13" s="4"/>
+      <c r="B13" s="5"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="5"/>
+      <c r="H13" s="5"/>
+      <c r="I13" s="5"/>
+      <c r="J13" s="5"/>
+      <c r="K13" s="5"/>
+      <c r="L13" s="5"/>
+      <c r="M13" s="5"/>
+      <c r="N13" s="5"/>
+      <c r="O13" s="5"/>
+    </row>
+    <row r="14" spans="1:27">
+      <c r="A14" s="4"/>
+      <c r="B14" s="5"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="5"/>
+      <c r="H14" s="5"/>
+      <c r="I14" s="5"/>
+      <c r="J14" s="5"/>
+      <c r="K14" s="5"/>
+      <c r="L14" s="5"/>
+      <c r="M14" s="5"/>
+      <c r="N14" s="5"/>
+      <c r="O14" s="5"/>
+    </row>
+    <row r="15" spans="1:27">
+      <c r="A15" s="4"/>
+      <c r="B15" s="5"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="5"/>
+      <c r="H15" s="5"/>
+      <c r="I15" s="5"/>
+      <c r="J15" s="5"/>
+      <c r="K15" s="5"/>
+      <c r="L15" s="5"/>
+      <c r="M15" s="5"/>
+      <c r="N15" s="5"/>
+      <c r="O15" s="5"/>
+    </row>
+    <row r="16" spans="1:27">
+      <c r="A16" s="4"/>
+      <c r="B16" s="5"/>
+      <c r="C16" s="5"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="5"/>
+      <c r="G16" s="5"/>
+      <c r="H16" s="5"/>
+      <c r="I16" s="5"/>
+      <c r="J16" s="5"/>
+      <c r="K16" s="5"/>
+      <c r="L16" s="5"/>
+      <c r="M16" s="5"/>
+      <c r="N16" s="5"/>
+      <c r="O16" s="5"/>
+    </row>
+    <row r="17" spans="1:11">
+      <c r="A17" t="s">
+        <v>13</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
+      <c r="I17" s="1"/>
+      <c r="J17" s="1"/>
+      <c r="K17" s="1"/>
+    </row>
+    <row r="18" spans="1:11">
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1"/>
+      <c r="I18" s="1"/>
+      <c r="J18" s="1"/>
+      <c r="K18" s="1"/>
     </row>
   </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="B2:AA4"/>
+    <mergeCell ref="B5:AA7"/>
+    <mergeCell ref="A5:A7"/>
+    <mergeCell ref="A12:A16"/>
+    <mergeCell ref="B10:O11"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="B12:O16"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>

--- a/my_prompts.xlsx
+++ b/my_prompts.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\notes\awesome-chatgpt-prompts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3B9E06D-A66D-40D7-AA7E-10DF68F9167B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{472D07D8-D3BC-4D8F-A7A5-9D35D9F79C4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="795" yWindow="1560" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>act</t>
   </si>
@@ -57,11 +57,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>&lt;title/abstract/introduction&gt;
-I want you do not give any your opinions before I request you to answer questions, just wait for further text/instructions.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>I want you to act as an English translator, spelling corrector and improver. I will speak to you in any language and you will detect the language, translate it and answer in the corrected and improved version of my text, in English. I want you to replace my simplified A0-level words and sentences with more beautiful and elegant, upper level English words and sentences. Keep the meaning same, but make them more literary. I want you to only reply the correction, the improvements and nothing else, do not write explanations. The text is:
 &lt;text&gt;</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -85,6 +80,23 @@
   </si>
   <si>
     <t>Paper Reviewer Comments</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Paper Summarizer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;title / abstract / introduction&gt;
+I want you do not give any your opinions before I request you to answer questions, just wait for further text/instructions.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I want you to serve as a paper reader. You will need to read and summarize the paper, critically understanding its research, approach, methodologies, and conclusions. Your task is to:
+1. summarize the highlights of this paper;
+2. summarize the technological advantages of this paper;
+2. show any ideas that could be useful for future invesetigations;
+Here is the content of the paper:</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -128,7 +140,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -140,10 +152,7 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -425,10 +434,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AA18"/>
+  <dimension ref="A1:AB22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="B16" sqref="B16:AB20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -436,7 +445,7 @@
     <col min="1" max="1" width="29.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27">
+    <row r="1" spans="1:28">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -444,191 +453,201 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:27" ht="14.25" customHeight="1">
-      <c r="A2" s="4" t="s">
+    <row r="2" spans="1:28" ht="14.25" customHeight="1">
+      <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
+      <c r="K2" s="3"/>
+      <c r="L2" s="3"/>
+      <c r="M2" s="3"/>
+      <c r="N2" s="3"/>
+      <c r="O2" s="3"/>
+      <c r="P2" s="3"/>
+      <c r="Q2" s="3"/>
+      <c r="R2" s="3"/>
+      <c r="S2" s="3"/>
+      <c r="T2" s="3"/>
+      <c r="U2" s="3"/>
+      <c r="V2" s="3"/>
+      <c r="W2" s="3"/>
+      <c r="X2" s="3"/>
+      <c r="Y2" s="3"/>
+      <c r="Z2" s="3"/>
+      <c r="AA2" s="3"/>
+      <c r="AB2" s="3"/>
+    </row>
+    <row r="3" spans="1:28">
+      <c r="A3" s="2"/>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="3"/>
+      <c r="J3" s="3"/>
+      <c r="K3" s="3"/>
+      <c r="L3" s="3"/>
+      <c r="M3" s="3"/>
+      <c r="N3" s="3"/>
+      <c r="O3" s="3"/>
+      <c r="P3" s="3"/>
+      <c r="Q3" s="3"/>
+      <c r="R3" s="3"/>
+      <c r="S3" s="3"/>
+      <c r="T3" s="3"/>
+      <c r="U3" s="3"/>
+      <c r="V3" s="3"/>
+      <c r="W3" s="3"/>
+      <c r="X3" s="3"/>
+      <c r="Y3" s="3"/>
+      <c r="Z3" s="3"/>
+      <c r="AA3" s="3"/>
+      <c r="AB3" s="3"/>
+    </row>
+    <row r="4" spans="1:28">
+      <c r="A4" s="2"/>
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
+      <c r="J4" s="3"/>
+      <c r="K4" s="3"/>
+      <c r="L4" s="3"/>
+      <c r="M4" s="3"/>
+      <c r="N4" s="3"/>
+      <c r="O4" s="3"/>
+      <c r="P4" s="3"/>
+      <c r="Q4" s="3"/>
+      <c r="R4" s="3"/>
+      <c r="S4" s="3"/>
+      <c r="T4" s="3"/>
+      <c r="U4" s="3"/>
+      <c r="V4" s="3"/>
+      <c r="W4" s="3"/>
+      <c r="X4" s="3"/>
+      <c r="Y4" s="3"/>
+      <c r="Z4" s="3"/>
+      <c r="AA4" s="3"/>
+      <c r="AB4" s="3"/>
+    </row>
+    <row r="5" spans="1:28" ht="14.25" customHeight="1">
+      <c r="A5" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="5"/>
-      <c r="I2" s="5"/>
-      <c r="J2" s="5"/>
-      <c r="K2" s="5"/>
-      <c r="L2" s="5"/>
-      <c r="M2" s="5"/>
-      <c r="N2" s="5"/>
-      <c r="O2" s="5"/>
-      <c r="P2" s="5"/>
-      <c r="Q2" s="5"/>
-      <c r="R2" s="5"/>
-      <c r="S2" s="5"/>
-      <c r="T2" s="5"/>
-      <c r="U2" s="5"/>
-      <c r="V2" s="5"/>
-      <c r="W2" s="5"/>
-      <c r="X2" s="5"/>
-      <c r="Y2" s="5"/>
-      <c r="Z2" s="5"/>
-      <c r="AA2" s="5"/>
-    </row>
-    <row r="3" spans="1:27">
-      <c r="A3" s="4"/>
-      <c r="B3" s="5"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
-      <c r="H3" s="5"/>
-      <c r="I3" s="5"/>
-      <c r="J3" s="5"/>
-      <c r="K3" s="5"/>
-      <c r="L3" s="5"/>
-      <c r="M3" s="5"/>
-      <c r="N3" s="5"/>
-      <c r="O3" s="5"/>
-      <c r="P3" s="5"/>
-      <c r="Q3" s="5"/>
-      <c r="R3" s="5"/>
-      <c r="S3" s="5"/>
-      <c r="T3" s="5"/>
-      <c r="U3" s="5"/>
-      <c r="V3" s="5"/>
-      <c r="W3" s="5"/>
-      <c r="X3" s="5"/>
-      <c r="Y3" s="5"/>
-      <c r="Z3" s="5"/>
-      <c r="AA3" s="5"/>
-    </row>
-    <row r="4" spans="1:27">
-      <c r="A4" s="4"/>
-      <c r="B4" s="5"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5"/>
-      <c r="H4" s="5"/>
-      <c r="I4" s="5"/>
-      <c r="J4" s="5"/>
-      <c r="K4" s="5"/>
-      <c r="L4" s="5"/>
-      <c r="M4" s="5"/>
-      <c r="N4" s="5"/>
-      <c r="O4" s="5"/>
-      <c r="P4" s="5"/>
-      <c r="Q4" s="5"/>
-      <c r="R4" s="5"/>
-      <c r="S4" s="5"/>
-      <c r="T4" s="5"/>
-      <c r="U4" s="5"/>
-      <c r="V4" s="5"/>
-      <c r="W4" s="5"/>
-      <c r="X4" s="5"/>
-      <c r="Y4" s="5"/>
-      <c r="Z4" s="5"/>
-      <c r="AA4" s="5"/>
-    </row>
-    <row r="5" spans="1:27">
-      <c r="A5" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5"/>
-      <c r="H5" s="5"/>
-      <c r="I5" s="5"/>
-      <c r="J5" s="5"/>
-      <c r="K5" s="5"/>
-      <c r="L5" s="5"/>
-      <c r="M5" s="5"/>
-      <c r="N5" s="5"/>
-      <c r="O5" s="5"/>
-      <c r="P5" s="5"/>
-      <c r="Q5" s="5"/>
-      <c r="R5" s="5"/>
-      <c r="S5" s="5"/>
-      <c r="T5" s="5"/>
-      <c r="U5" s="5"/>
-      <c r="V5" s="5"/>
-      <c r="W5" s="5"/>
-      <c r="X5" s="5"/>
-      <c r="Y5" s="5"/>
-      <c r="Z5" s="5"/>
-      <c r="AA5" s="5"/>
-    </row>
-    <row r="6" spans="1:27">
-      <c r="A6" s="4"/>
-      <c r="B6" s="5"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
-      <c r="H6" s="5"/>
-      <c r="I6" s="5"/>
-      <c r="J6" s="5"/>
-      <c r="K6" s="5"/>
-      <c r="L6" s="5"/>
-      <c r="M6" s="5"/>
-      <c r="N6" s="5"/>
-      <c r="O6" s="5"/>
-      <c r="P6" s="5"/>
-      <c r="Q6" s="5"/>
-      <c r="R6" s="5"/>
-      <c r="S6" s="5"/>
-      <c r="T6" s="5"/>
-      <c r="U6" s="5"/>
-      <c r="V6" s="5"/>
-      <c r="W6" s="5"/>
-      <c r="X6" s="5"/>
-      <c r="Y6" s="5"/>
-      <c r="Z6" s="5"/>
-      <c r="AA6" s="5"/>
-    </row>
-    <row r="7" spans="1:27">
-      <c r="A7" s="4"/>
-      <c r="B7" s="5"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
-      <c r="H7" s="5"/>
-      <c r="I7" s="5"/>
-      <c r="J7" s="5"/>
-      <c r="K7" s="5"/>
-      <c r="L7" s="5"/>
-      <c r="M7" s="5"/>
-      <c r="N7" s="5"/>
-      <c r="O7" s="5"/>
-      <c r="P7" s="5"/>
-      <c r="Q7" s="5"/>
-      <c r="R7" s="5"/>
-      <c r="S7" s="5"/>
-      <c r="T7" s="5"/>
-      <c r="U7" s="5"/>
-      <c r="V7" s="5"/>
-      <c r="W7" s="5"/>
-      <c r="X7" s="5"/>
-      <c r="Y7" s="5"/>
-      <c r="Z7" s="5"/>
-      <c r="AA7" s="5"/>
-    </row>
-    <row r="8" spans="1:27">
-      <c r="A8" s="2"/>
-      <c r="B8" s="3"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3"/>
+      <c r="J5" s="3"/>
+      <c r="K5" s="3"/>
+      <c r="L5" s="3"/>
+      <c r="M5" s="3"/>
+      <c r="N5" s="3"/>
+      <c r="O5" s="3"/>
+      <c r="P5" s="3"/>
+      <c r="Q5" s="3"/>
+      <c r="R5" s="3"/>
+      <c r="S5" s="3"/>
+      <c r="T5" s="3"/>
+      <c r="U5" s="3"/>
+      <c r="V5" s="3"/>
+      <c r="W5" s="3"/>
+      <c r="X5" s="3"/>
+      <c r="Y5" s="3"/>
+      <c r="Z5" s="3"/>
+      <c r="AA5" s="3"/>
+      <c r="AB5" s="3"/>
+    </row>
+    <row r="6" spans="1:28">
+      <c r="A6" s="2"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
+      <c r="J6" s="3"/>
+      <c r="K6" s="3"/>
+      <c r="L6" s="3"/>
+      <c r="M6" s="3"/>
+      <c r="N6" s="3"/>
+      <c r="O6" s="3"/>
+      <c r="P6" s="3"/>
+      <c r="Q6" s="3"/>
+      <c r="R6" s="3"/>
+      <c r="S6" s="3"/>
+      <c r="T6" s="3"/>
+      <c r="U6" s="3"/>
+      <c r="V6" s="3"/>
+      <c r="W6" s="3"/>
+      <c r="X6" s="3"/>
+      <c r="Y6" s="3"/>
+      <c r="Z6" s="3"/>
+      <c r="AA6" s="3"/>
+      <c r="AB6" s="3"/>
+    </row>
+    <row r="7" spans="1:28">
+      <c r="A7" s="2"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
+      <c r="J7" s="3"/>
+      <c r="K7" s="3"/>
+      <c r="L7" s="3"/>
+      <c r="M7" s="3"/>
+      <c r="N7" s="3"/>
+      <c r="O7" s="3"/>
+      <c r="P7" s="3"/>
+      <c r="Q7" s="3"/>
+      <c r="R7" s="3"/>
+      <c r="S7" s="3"/>
+      <c r="T7" s="3"/>
+      <c r="U7" s="3"/>
+      <c r="V7" s="3"/>
+      <c r="W7" s="3"/>
+      <c r="X7" s="3"/>
+      <c r="Y7" s="3"/>
+      <c r="Z7" s="3"/>
+      <c r="AA7" s="3"/>
+      <c r="AB7" s="3"/>
+    </row>
+    <row r="8" spans="1:28">
+      <c r="A8" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>15</v>
+      </c>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
       <c r="E8" s="3"/>
@@ -654,181 +673,440 @@
       <c r="Y8" s="3"/>
       <c r="Z8" s="3"/>
       <c r="AA8" s="3"/>
-    </row>
-    <row r="9" spans="1:27">
-      <c r="A9" t="s">
+      <c r="AB8" s="3"/>
+    </row>
+    <row r="9" spans="1:28">
+      <c r="A9" s="2"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="3"/>
+      <c r="J9" s="3"/>
+      <c r="K9" s="3"/>
+      <c r="L9" s="3"/>
+      <c r="M9" s="3"/>
+      <c r="N9" s="3"/>
+      <c r="O9" s="3"/>
+      <c r="P9" s="3"/>
+      <c r="Q9" s="3"/>
+      <c r="R9" s="3"/>
+      <c r="S9" s="3"/>
+      <c r="T9" s="3"/>
+      <c r="U9" s="3"/>
+      <c r="V9" s="3"/>
+      <c r="W9" s="3"/>
+      <c r="X9" s="3"/>
+      <c r="Y9" s="3"/>
+      <c r="Z9" s="3"/>
+      <c r="AA9" s="3"/>
+      <c r="AB9" s="3"/>
+    </row>
+    <row r="10" spans="1:28">
+      <c r="A10" s="2"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3"/>
+      <c r="K10" s="3"/>
+      <c r="L10" s="3"/>
+      <c r="M10" s="3"/>
+      <c r="N10" s="3"/>
+      <c r="O10" s="3"/>
+      <c r="P10" s="3"/>
+      <c r="Q10" s="3"/>
+      <c r="R10" s="3"/>
+      <c r="S10" s="3"/>
+      <c r="T10" s="3"/>
+      <c r="U10" s="3"/>
+      <c r="V10" s="3"/>
+      <c r="W10" s="3"/>
+      <c r="X10" s="3"/>
+      <c r="Y10" s="3"/>
+      <c r="Z10" s="3"/>
+      <c r="AA10" s="3"/>
+      <c r="AB10" s="3"/>
+    </row>
+    <row r="11" spans="1:28">
+      <c r="A11" s="2"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
+      <c r="I11" s="3"/>
+      <c r="J11" s="3"/>
+      <c r="K11" s="3"/>
+      <c r="L11" s="3"/>
+      <c r="M11" s="3"/>
+      <c r="N11" s="3"/>
+      <c r="O11" s="3"/>
+      <c r="P11" s="3"/>
+      <c r="Q11" s="3"/>
+      <c r="R11" s="3"/>
+      <c r="S11" s="3"/>
+      <c r="T11" s="3"/>
+      <c r="U11" s="3"/>
+      <c r="V11" s="3"/>
+      <c r="W11" s="3"/>
+      <c r="X11" s="3"/>
+      <c r="Y11" s="3"/>
+      <c r="Z11" s="3"/>
+      <c r="AA11" s="3"/>
+      <c r="AB11" s="3"/>
+    </row>
+    <row r="12" spans="1:28" ht="14.25" customHeight="1">
+      <c r="A12" s="2"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3"/>
+      <c r="K12" s="3"/>
+      <c r="L12" s="3"/>
+      <c r="M12" s="3"/>
+      <c r="N12" s="3"/>
+      <c r="O12" s="3"/>
+      <c r="P12" s="3"/>
+      <c r="Q12" s="3"/>
+      <c r="R12" s="3"/>
+      <c r="S12" s="3"/>
+      <c r="T12" s="3"/>
+      <c r="U12" s="3"/>
+      <c r="V12" s="3"/>
+      <c r="W12" s="3"/>
+      <c r="X12" s="3"/>
+      <c r="Y12" s="3"/>
+      <c r="Z12" s="3"/>
+      <c r="AA12" s="3"/>
+      <c r="AB12" s="3"/>
+    </row>
+    <row r="13" spans="1:28">
+      <c r="A13" t="s">
+        <v>9</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C13" s="4"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="4"/>
+      <c r="H13" s="4"/>
+      <c r="I13" s="4"/>
+      <c r="J13" s="4"/>
+      <c r="K13" s="4"/>
+      <c r="L13" s="4"/>
+      <c r="M13" s="4"/>
+      <c r="N13" s="4"/>
+      <c r="O13" s="4"/>
+      <c r="P13" s="4"/>
+      <c r="Q13" s="4"/>
+      <c r="R13" s="4"/>
+      <c r="S13" s="4"/>
+      <c r="T13" s="4"/>
+      <c r="U13" s="4"/>
+      <c r="V13" s="4"/>
+      <c r="W13" s="4"/>
+      <c r="X13" s="4"/>
+      <c r="Y13" s="4"/>
+      <c r="Z13" s="4"/>
+      <c r="AA13" s="4"/>
+      <c r="AB13" s="4"/>
+    </row>
+    <row r="14" spans="1:28" ht="14.25" customHeight="1">
+      <c r="A14" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B9" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:27">
-      <c r="A10" s="4" t="s">
+      <c r="B14" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
+      <c r="J14" s="3"/>
+      <c r="K14" s="3"/>
+      <c r="L14" s="3"/>
+      <c r="M14" s="3"/>
+      <c r="N14" s="3"/>
+      <c r="O14" s="3"/>
+      <c r="P14" s="3"/>
+      <c r="Q14" s="3"/>
+      <c r="R14" s="3"/>
+      <c r="S14" s="3"/>
+      <c r="T14" s="3"/>
+      <c r="U14" s="3"/>
+      <c r="V14" s="3"/>
+      <c r="W14" s="3"/>
+      <c r="X14" s="3"/>
+      <c r="Y14" s="3"/>
+      <c r="Z14" s="3"/>
+      <c r="AA14" s="3"/>
+      <c r="AB14" s="3"/>
+    </row>
+    <row r="15" spans="1:28">
+      <c r="A15" s="2"/>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="3"/>
+      <c r="J15" s="3"/>
+      <c r="K15" s="3"/>
+      <c r="L15" s="3"/>
+      <c r="M15" s="3"/>
+      <c r="N15" s="3"/>
+      <c r="O15" s="3"/>
+      <c r="P15" s="3"/>
+      <c r="Q15" s="3"/>
+      <c r="R15" s="3"/>
+      <c r="S15" s="3"/>
+      <c r="T15" s="3"/>
+      <c r="U15" s="3"/>
+      <c r="V15" s="3"/>
+      <c r="W15" s="3"/>
+      <c r="X15" s="3"/>
+      <c r="Y15" s="3"/>
+      <c r="Z15" s="3"/>
+      <c r="AA15" s="3"/>
+      <c r="AB15" s="3"/>
+    </row>
+    <row r="16" spans="1:28" ht="14.25" customHeight="1">
+      <c r="A16" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
-      <c r="G10" s="4"/>
-      <c r="H10" s="4"/>
-      <c r="I10" s="4"/>
-      <c r="J10" s="4"/>
-      <c r="K10" s="4"/>
-      <c r="L10" s="4"/>
-      <c r="M10" s="4"/>
-      <c r="N10" s="4"/>
-      <c r="O10" s="4"/>
-    </row>
-    <row r="11" spans="1:27">
-      <c r="A11" s="4"/>
-      <c r="B11" s="4"/>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
-      <c r="E11" s="4"/>
-      <c r="F11" s="4"/>
-      <c r="G11" s="4"/>
-      <c r="H11" s="4"/>
-      <c r="I11" s="4"/>
-      <c r="J11" s="4"/>
-      <c r="K11" s="4"/>
-      <c r="L11" s="4"/>
-      <c r="M11" s="4"/>
-      <c r="N11" s="4"/>
-      <c r="O11" s="4"/>
-    </row>
-    <row r="12" spans="1:27" ht="14.25" customHeight="1">
-      <c r="A12" s="4" t="s">
+      <c r="B16" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
+      <c r="I16" s="3"/>
+      <c r="J16" s="3"/>
+      <c r="K16" s="3"/>
+      <c r="L16" s="3"/>
+      <c r="M16" s="3"/>
+      <c r="N16" s="3"/>
+      <c r="O16" s="3"/>
+      <c r="P16" s="3"/>
+      <c r="Q16" s="3"/>
+      <c r="R16" s="3"/>
+      <c r="S16" s="3"/>
+      <c r="T16" s="3"/>
+      <c r="U16" s="3"/>
+      <c r="V16" s="3"/>
+      <c r="W16" s="3"/>
+      <c r="X16" s="3"/>
+      <c r="Y16" s="3"/>
+      <c r="Z16" s="3"/>
+      <c r="AA16" s="3"/>
+      <c r="AB16" s="3"/>
+    </row>
+    <row r="17" spans="1:28">
+      <c r="A17" s="2"/>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
+      <c r="I17" s="3"/>
+      <c r="J17" s="3"/>
+      <c r="K17" s="3"/>
+      <c r="L17" s="3"/>
+      <c r="M17" s="3"/>
+      <c r="N17" s="3"/>
+      <c r="O17" s="3"/>
+      <c r="P17" s="3"/>
+      <c r="Q17" s="3"/>
+      <c r="R17" s="3"/>
+      <c r="S17" s="3"/>
+      <c r="T17" s="3"/>
+      <c r="U17" s="3"/>
+      <c r="V17" s="3"/>
+      <c r="W17" s="3"/>
+      <c r="X17" s="3"/>
+      <c r="Y17" s="3"/>
+      <c r="Z17" s="3"/>
+      <c r="AA17" s="3"/>
+      <c r="AB17" s="3"/>
+    </row>
+    <row r="18" spans="1:28">
+      <c r="A18" s="2"/>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3"/>
+      <c r="I18" s="3"/>
+      <c r="J18" s="3"/>
+      <c r="K18" s="3"/>
+      <c r="L18" s="3"/>
+      <c r="M18" s="3"/>
+      <c r="N18" s="3"/>
+      <c r="O18" s="3"/>
+      <c r="P18" s="3"/>
+      <c r="Q18" s="3"/>
+      <c r="R18" s="3"/>
+      <c r="S18" s="3"/>
+      <c r="T18" s="3"/>
+      <c r="U18" s="3"/>
+      <c r="V18" s="3"/>
+      <c r="W18" s="3"/>
+      <c r="X18" s="3"/>
+      <c r="Y18" s="3"/>
+      <c r="Z18" s="3"/>
+      <c r="AA18" s="3"/>
+      <c r="AB18" s="3"/>
+    </row>
+    <row r="19" spans="1:28">
+      <c r="A19" s="2"/>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="3"/>
+      <c r="I19" s="3"/>
+      <c r="J19" s="3"/>
+      <c r="K19" s="3"/>
+      <c r="L19" s="3"/>
+      <c r="M19" s="3"/>
+      <c r="N19" s="3"/>
+      <c r="O19" s="3"/>
+      <c r="P19" s="3"/>
+      <c r="Q19" s="3"/>
+      <c r="R19" s="3"/>
+      <c r="S19" s="3"/>
+      <c r="T19" s="3"/>
+      <c r="U19" s="3"/>
+      <c r="V19" s="3"/>
+      <c r="W19" s="3"/>
+      <c r="X19" s="3"/>
+      <c r="Y19" s="3"/>
+      <c r="Z19" s="3"/>
+      <c r="AA19" s="3"/>
+      <c r="AB19" s="3"/>
+    </row>
+    <row r="20" spans="1:28">
+      <c r="A20" s="2"/>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="3"/>
+      <c r="I20" s="3"/>
+      <c r="J20" s="3"/>
+      <c r="K20" s="3"/>
+      <c r="L20" s="3"/>
+      <c r="M20" s="3"/>
+      <c r="N20" s="3"/>
+      <c r="O20" s="3"/>
+      <c r="P20" s="3"/>
+      <c r="Q20" s="3"/>
+      <c r="R20" s="3"/>
+      <c r="S20" s="3"/>
+      <c r="T20" s="3"/>
+      <c r="U20" s="3"/>
+      <c r="V20" s="3"/>
+      <c r="W20" s="3"/>
+      <c r="X20" s="3"/>
+      <c r="Y20" s="3"/>
+      <c r="Z20" s="3"/>
+      <c r="AA20" s="3"/>
+      <c r="AB20" s="3"/>
+    </row>
+    <row r="21" spans="1:28">
+      <c r="A21" t="s">
         <v>12</v>
       </c>
-      <c r="B12" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C12" s="5"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="5"/>
-      <c r="F12" s="5"/>
-      <c r="G12" s="5"/>
-      <c r="H12" s="5"/>
-      <c r="I12" s="5"/>
-      <c r="J12" s="5"/>
-      <c r="K12" s="5"/>
-      <c r="L12" s="5"/>
-      <c r="M12" s="5"/>
-      <c r="N12" s="5"/>
-      <c r="O12" s="5"/>
-    </row>
-    <row r="13" spans="1:27">
-      <c r="A13" s="4"/>
-      <c r="B13" s="5"/>
-      <c r="C13" s="5"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5"/>
-      <c r="G13" s="5"/>
-      <c r="H13" s="5"/>
-      <c r="I13" s="5"/>
-      <c r="J13" s="5"/>
-      <c r="K13" s="5"/>
-      <c r="L13" s="5"/>
-      <c r="M13" s="5"/>
-      <c r="N13" s="5"/>
-      <c r="O13" s="5"/>
-    </row>
-    <row r="14" spans="1:27">
-      <c r="A14" s="4"/>
-      <c r="B14" s="5"/>
-      <c r="C14" s="5"/>
-      <c r="D14" s="5"/>
-      <c r="E14" s="5"/>
-      <c r="F14" s="5"/>
-      <c r="G14" s="5"/>
-      <c r="H14" s="5"/>
-      <c r="I14" s="5"/>
-      <c r="J14" s="5"/>
-      <c r="K14" s="5"/>
-      <c r="L14" s="5"/>
-      <c r="M14" s="5"/>
-      <c r="N14" s="5"/>
-      <c r="O14" s="5"/>
-    </row>
-    <row r="15" spans="1:27">
-      <c r="A15" s="4"/>
-      <c r="B15" s="5"/>
-      <c r="C15" s="5"/>
-      <c r="D15" s="5"/>
-      <c r="E15" s="5"/>
-      <c r="F15" s="5"/>
-      <c r="G15" s="5"/>
-      <c r="H15" s="5"/>
-      <c r="I15" s="5"/>
-      <c r="J15" s="5"/>
-      <c r="K15" s="5"/>
-      <c r="L15" s="5"/>
-      <c r="M15" s="5"/>
-      <c r="N15" s="5"/>
-      <c r="O15" s="5"/>
-    </row>
-    <row r="16" spans="1:27">
-      <c r="A16" s="4"/>
-      <c r="B16" s="5"/>
-      <c r="C16" s="5"/>
-      <c r="D16" s="5"/>
-      <c r="E16" s="5"/>
-      <c r="F16" s="5"/>
-      <c r="G16" s="5"/>
-      <c r="H16" s="5"/>
-      <c r="I16" s="5"/>
-      <c r="J16" s="5"/>
-      <c r="K16" s="5"/>
-      <c r="L16" s="5"/>
-      <c r="M16" s="5"/>
-      <c r="N16" s="5"/>
-      <c r="O16" s="5"/>
-    </row>
-    <row r="17" spans="1:11">
-      <c r="A17" t="s">
-        <v>13</v>
-      </c>
-      <c r="B17" s="1" t="s">
+      <c r="B21" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
-      <c r="F17" s="1"/>
-      <c r="G17" s="1"/>
-      <c r="H17" s="1"/>
-      <c r="I17" s="1"/>
-      <c r="J17" s="1"/>
-      <c r="K17" s="1"/>
-    </row>
-    <row r="18" spans="1:11">
-      <c r="B18" s="1"/>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
-      <c r="F18" s="1"/>
-      <c r="G18" s="1"/>
-      <c r="H18" s="1"/>
-      <c r="I18" s="1"/>
-      <c r="J18" s="1"/>
-      <c r="K18" s="1"/>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2"/>
+      <c r="G21" s="2"/>
+      <c r="H21" s="2"/>
+      <c r="I21" s="2"/>
+      <c r="J21" s="2"/>
+      <c r="K21" s="2"/>
+      <c r="L21" s="2"/>
+      <c r="M21" s="2"/>
+      <c r="N21" s="2"/>
+      <c r="O21" s="2"/>
+      <c r="P21" s="2"/>
+      <c r="Q21" s="2"/>
+      <c r="R21" s="2"/>
+      <c r="S21" s="2"/>
+      <c r="T21" s="2"/>
+      <c r="U21" s="2"/>
+      <c r="V21" s="2"/>
+      <c r="W21" s="2"/>
+      <c r="X21" s="2"/>
+      <c r="Y21" s="2"/>
+      <c r="Z21" s="2"/>
+      <c r="AA21" s="2"/>
+      <c r="AB21" s="2"/>
+    </row>
+    <row r="22" spans="1:28">
+      <c r="B22" s="1"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
+      <c r="G22" s="1"/>
+      <c r="H22" s="1"/>
+      <c r="I22" s="1"/>
+      <c r="J22" s="1"/>
+      <c r="K22" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="12">
+    <mergeCell ref="B21:AB21"/>
+    <mergeCell ref="A8:A12"/>
+    <mergeCell ref="B8:AB12"/>
     <mergeCell ref="A2:A4"/>
-    <mergeCell ref="B2:AA4"/>
-    <mergeCell ref="B5:AA7"/>
     <mergeCell ref="A5:A7"/>
-    <mergeCell ref="A12:A16"/>
-    <mergeCell ref="B10:O11"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="B12:O16"/>
+    <mergeCell ref="A16:A20"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="B2:AB4"/>
+    <mergeCell ref="B5:AB7"/>
+    <mergeCell ref="B13:AB13"/>
+    <mergeCell ref="B14:AB15"/>
+    <mergeCell ref="B16:AB20"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
